--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -363,7 +363,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -371,23 +371,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -395,10 +396,10 @@
   <cols>
     <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.18359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1609,7 +1610,7 @@
         <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>81</v>
@@ -1629,7 +1630,7 @@
         <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>81</v>
@@ -1649,7 +1650,7 @@
         <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>81</v>
@@ -1669,7 +1670,7 @@
         <v>97</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>81</v>
@@ -1824,273 +1825,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DA4EBE-6327-4E8F-97AE-A8F7917573FB}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC602C46-2A9E-494C-8405-5869E622CB64}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E2BC31-CD3E-4ECF-8B63-4F41BA1FED2F}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -1750,7 +1750,7 @@
         <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>101</v>
@@ -1770,7 +1770,7 @@
         <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>101</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -44,6 +44,30 @@
     <t/>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -110,9 +134,6 @@
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -309,6 +330,12 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -388,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -444,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -463,40 +490,40 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -504,19 +531,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -524,19 +551,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -544,19 +571,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -564,19 +591,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -584,59 +611,59 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -644,19 +671,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -664,19 +691,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -684,19 +711,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -707,16 +734,16 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -727,16 +754,16 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -747,16 +774,16 @@
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -764,19 +791,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -784,19 +811,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -804,19 +831,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -824,19 +851,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -844,19 +871,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -864,19 +891,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -884,19 +911,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -904,19 +931,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -924,19 +951,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -944,19 +971,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -964,19 +991,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -984,19 +1011,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1004,19 +1031,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1024,19 +1051,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1044,19 +1071,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1064,19 +1091,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1084,19 +1111,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1104,19 +1131,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1124,19 +1151,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1144,19 +1171,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1164,19 +1191,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1184,19 +1211,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1204,19 +1231,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1224,19 +1251,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1244,19 +1271,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1264,19 +1291,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1284,19 +1311,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1304,19 +1331,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1324,19 +1351,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1344,19 +1371,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1364,19 +1391,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1384,19 +1411,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1404,19 +1431,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1424,19 +1451,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1444,19 +1471,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1464,19 +1491,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1484,19 +1511,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1504,19 +1531,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1524,19 +1551,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1544,19 +1571,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1564,19 +1591,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1584,19 +1611,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1604,19 +1631,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1624,19 +1651,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1644,19 +1671,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1664,19 +1691,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1684,19 +1711,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1704,19 +1731,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1724,19 +1751,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1744,19 +1771,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1764,19 +1791,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1784,19 +1811,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1804,21 +1831,181 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="103">
   <si>
     <t>Sezione</t>
   </si>
@@ -44,7 +44,7 @@
     <t/>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>NO</t>
@@ -272,91 +272,55 @@
     <t>evento.intestatari[1]</t>
   </si>
   <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
+    <t>Nome Ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMatrimonio.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia Ente</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune Ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Indirizzo Ente</t>
+  </si>
+  <si>
+    <t>indirizzoEnte</t>
   </si>
   <si>
     <t>Estremi documento</t>
   </si>
   <si>
     <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>Nome Ente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMatrimonio.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>Provincia Ente</t>
-  </si>
-  <si>
-    <t>Comune Ente</t>
-  </si>
-  <si>
-    <t>Indirizzo Ente</t>
-  </si>
-  <si>
-    <t>indirizzoEnte</t>
   </si>
 </sst>
 </file>
@@ -415,16 +379,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1714,16 +1678,16 @@
         <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1734,16 +1698,16 @@
         <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1754,16 +1718,16 @@
         <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1774,7 +1738,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -1783,7 +1747,7 @@
         <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1794,7 +1758,7 @@
         <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
@@ -1803,7 +1767,7 @@
         <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1814,198 +1778,18 @@
         <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -272,6 +272,72 @@
     <t>evento.intestatari[1]</t>
   </si>
   <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMatrimonio.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
@@ -281,46 +347,16 @@
     <t>evento.trascrizioneMatrimonio.atto.enteEstero</t>
   </si>
   <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
     <t>Provincia Ente</t>
   </si>
   <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
     <t>Comune Ente</t>
   </si>
   <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
     <t>Indirizzo Ente</t>
   </si>
   <si>
     <t>indirizzoEnte</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
   </si>
 </sst>
 </file>
@@ -379,16 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.48828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1678,16 +1714,16 @@
         <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1698,16 +1734,16 @@
         <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1718,16 +1754,16 @@
         <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1738,7 +1774,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -1747,7 +1783,7 @@
         <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1758,7 +1794,7 @@
         <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
@@ -1767,7 +1803,7 @@
         <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1778,18 +1814,218 @@
         <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Data matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
   </si>
   <si>
     <t>Generalità Sposo</t>
@@ -415,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -791,19 +800,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -811,19 +820,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -831,19 +840,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -851,19 +860,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -871,19 +880,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -891,19 +900,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -911,19 +920,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -931,19 +940,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -951,19 +960,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -971,19 +980,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -991,19 +1000,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1011,19 +1020,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1031,19 +1040,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1051,19 +1060,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1071,19 +1080,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1091,19 +1100,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1111,19 +1120,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1131,19 +1140,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1151,19 +1160,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1171,19 +1180,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1191,19 +1200,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1211,19 +1220,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1231,19 +1240,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1251,19 +1260,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1271,19 +1280,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1291,19 +1300,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1311,19 +1320,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1331,19 +1340,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1351,19 +1360,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1371,19 +1380,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1391,19 +1400,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1411,19 +1420,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1431,19 +1440,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1451,19 +1460,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1471,19 +1480,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1491,19 +1500,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1511,19 +1520,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1531,19 +1540,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1551,19 +1560,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1571,19 +1580,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1591,19 +1600,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1611,19 +1620,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1631,19 +1640,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1651,19 +1660,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1671,19 +1680,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1691,7 +1700,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>90</v>
@@ -1700,10 +1709,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1711,19 +1720,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1731,19 +1740,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1751,19 +1760,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1771,19 +1780,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1791,19 +1800,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1811,19 +1820,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1831,19 +1840,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1851,19 +1860,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1871,19 +1880,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1891,19 +1900,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -1911,19 +1920,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -1931,19 +1940,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1951,19 +1960,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1971,19 +1980,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -1991,19 +2000,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2011,21 +2020,61 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F80" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -350,22 +350,19 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Nome Ente</t>
-  </si>
-  <si>
     <t>evento.trascrizioneMatrimonio.atto.enteEstero</t>
   </si>
   <si>
-    <t>Provincia Ente</t>
-  </si>
-  <si>
-    <t>Comune Ente</t>
-  </si>
-  <si>
-    <t>Indirizzo Ente</t>
-  </si>
-  <si>
-    <t>indirizzoEnte</t>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1903,13 +1900,13 @@
         <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>96</v>
@@ -1929,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>98</v>
@@ -1943,13 +1940,13 @@
         <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>100</v>
@@ -1963,13 +1960,13 @@
         <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>102</v>
@@ -1989,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>104</v>
@@ -2003,13 +2000,13 @@
         <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>106</v>
@@ -2029,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>108</v>
@@ -2043,16 +2040,16 @@
         <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2063,16 +2060,16 @@
         <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,6 +439,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,185 +461,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -654,1425 +691,1641 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -439,7 +439,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1117,7 +1117,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>45</v>
@@ -1140,7 +1140,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
@@ -1163,7 +1163,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>45</v>
@@ -1186,7 +1186,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -1623,7 +1623,7 @@
         <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>90</v>
@@ -1646,7 +1646,7 @@
         <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>90</v>
@@ -1669,7 +1669,7 @@
         <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>90</v>
@@ -1692,7 +1692,7 @@
         <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>90</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale atto di nascita degli sposi</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
-  </si>
-  <si>
-    <t>Certificato di eseguita pubblicazione</t>
-  </si>
-  <si>
-    <t>Atto di pubblicazione</t>
-  </si>
-  <si>
-    <t>Richiesta rilascio atto di delega</t>
-  </si>
-  <si>
-    <t>Atto di delegazione</t>
-  </si>
-  <si>
-    <t>Copia atto di matrimonio trascritto</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -692,1640 +695,1640 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -116,16 +116,10 @@
     <t>Dati generali</t>
   </si>
   <si>
-    <t>Tipo richiesta</t>
+    <t>Data richiesta</t>
   </si>
   <si>
     <t>evento.trascrizioneMatrimonio</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Data richiesta</t>
   </si>
   <si>
     <t>dataComunicazione</t>
@@ -430,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -847,10 +841,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -861,19 +855,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -884,16 +878,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
@@ -907,7 +901,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>48</v>
@@ -916,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>49</v>
@@ -930,7 +924,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>50</v>
@@ -939,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -953,7 +947,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>52</v>
@@ -962,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>53</v>
@@ -976,7 +970,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>54</v>
@@ -985,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>55</v>
@@ -999,16 +993,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
@@ -1022,7 +1016,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>58</v>
@@ -1031,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>59</v>
@@ -1045,7 +1039,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>60</v>
@@ -1054,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>61</v>
@@ -1068,7 +1062,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>62</v>
@@ -1077,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>63</v>
@@ -1091,7 +1085,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>64</v>
@@ -1100,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>65</v>
@@ -1114,7 +1108,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>66</v>
@@ -1123,7 +1117,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>67</v>
@@ -1137,7 +1131,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>68</v>
@@ -1146,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>69</v>
@@ -1160,7 +1154,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>70</v>
@@ -1169,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>71</v>
@@ -1183,7 +1177,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>72</v>
@@ -1192,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>73</v>
@@ -1206,7 +1200,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>74</v>
@@ -1215,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>75</v>
@@ -1229,7 +1223,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>76</v>
@@ -1238,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>77</v>
@@ -1252,7 +1246,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>78</v>
@@ -1261,7 +1255,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>79</v>
@@ -1275,7 +1269,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>80</v>
@@ -1284,7 +1278,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>81</v>
@@ -1298,16 +1292,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>83</v>
@@ -1321,7 +1315,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>84</v>
@@ -1330,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>85</v>
@@ -1344,7 +1338,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>86</v>
@@ -1353,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>87</v>
@@ -1367,19 +1361,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1390,16 +1384,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>47</v>
@@ -1413,7 +1407,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>48</v>
@@ -1422,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>49</v>
@@ -1436,7 +1430,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>50</v>
@@ -1445,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>51</v>
@@ -1459,7 +1453,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>52</v>
@@ -1468,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>53</v>
@@ -1482,7 +1476,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>54</v>
@@ -1491,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>55</v>
@@ -1505,16 +1499,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>57</v>
@@ -1528,7 +1522,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>58</v>
@@ -1537,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>59</v>
@@ -1551,7 +1545,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>60</v>
@@ -1560,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>61</v>
@@ -1574,7 +1568,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>62</v>
@@ -1583,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>63</v>
@@ -1597,7 +1591,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>64</v>
@@ -1606,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>65</v>
@@ -1620,7 +1614,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>66</v>
@@ -1629,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>67</v>
@@ -1643,7 +1637,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>68</v>
@@ -1652,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>69</v>
@@ -1666,7 +1660,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>70</v>
@@ -1675,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>71</v>
@@ -1689,7 +1683,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>72</v>
@@ -1698,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>73</v>
@@ -1712,7 +1706,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>74</v>
@@ -1721,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>75</v>
@@ -1735,7 +1729,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>76</v>
@@ -1744,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>77</v>
@@ -1758,7 +1752,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>78</v>
@@ -1767,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>79</v>
@@ -1781,7 +1775,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>80</v>
@@ -1790,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>81</v>
@@ -1804,16 +1798,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>83</v>
@@ -1827,7 +1821,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>84</v>
@@ -1836,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>85</v>
@@ -1850,7 +1844,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>86</v>
@@ -1859,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>87</v>
@@ -1876,16 +1870,16 @@
         <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1896,16 +1890,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>95</v>
@@ -1919,7 +1913,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>96</v>
@@ -1928,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>97</v>
@@ -1942,7 +1936,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>98</v>
@@ -1951,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>99</v>
@@ -1965,7 +1959,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>100</v>
@@ -1974,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>101</v>
@@ -1988,16 +1982,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>103</v>
@@ -2011,7 +2005,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>104</v>
@@ -2020,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>105</v>
@@ -2034,7 +2028,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>106</v>
@@ -2043,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>107</v>
@@ -2057,7 +2051,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>108</v>
@@ -2066,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>109</v>
@@ -2080,7 +2074,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>110</v>
@@ -2089,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>111</v>
@@ -2103,19 +2097,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2126,7 +2120,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
@@ -2135,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>99</v>
@@ -2149,7 +2143,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>100</v>
@@ -2158,7 +2152,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>101</v>
@@ -2172,16 +2166,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>103</v>
@@ -2195,7 +2189,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>104</v>
@@ -2204,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>105</v>
@@ -2218,7 +2212,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>106</v>
@@ -2227,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>107</v>
@@ -2241,7 +2235,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>108</v>
@@ -2250,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>109</v>
@@ -2264,19 +2258,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2287,7 +2281,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>116</v>
@@ -2296,7 +2290,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>117</v>
@@ -2305,29 +2299,6 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -74,7 +74,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.3</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -116,6 +116,60 @@
     <t>Dati generali</t>
   </si>
   <si>
+    <t>Data Evento Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Data richiesta</t>
   </si>
   <si>
@@ -131,15 +185,6 @@
     <t>testoLibero</t>
   </si>
   <si>
-    <t>Data matrimonio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio</t>
-  </si>
-  <si>
-    <t>dataEvento</t>
-  </si>
-  <si>
     <t>Generalità Sposo</t>
   </si>
   <si>
@@ -342,12 +387,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -424,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -818,10 +857,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -835,13 +874,13 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>41</v>
@@ -855,19 +894,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -878,19 +917,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -901,19 +940,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -924,19 +963,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -947,19 +986,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -970,19 +1009,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -993,19 +1032,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1016,7 +1055,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>58</v>
@@ -1025,10 +1064,10 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1039,19 +1078,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1062,19 +1101,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1085,19 +1124,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1108,19 +1147,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1131,19 +1170,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1154,19 +1193,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1177,19 +1216,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1200,19 +1239,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1223,19 +1262,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1246,19 +1285,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1269,19 +1308,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1292,19 +1331,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1315,19 +1354,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1338,19 +1377,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1361,19 +1400,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1384,19 +1423,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1446,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1469,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1492,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1515,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1538,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1522,7 +1561,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>58</v>
@@ -1531,10 +1570,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1584,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1607,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1630,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1653,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1676,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1699,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1722,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1745,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1768,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1791,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1814,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1837,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1860,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1883,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1906,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1929,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1952,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1975,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1998,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1982,19 +2021,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2044,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2067,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2090,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2113,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2136,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2159,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2182,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2205,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2228,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2251,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2274,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2297,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2281,24 +2320,185 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,6 +47,9 @@
     <t/>
   </si>
   <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
     <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
@@ -113,7 +116,7 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati generali</t>
+    <t>Dati della trascrizione</t>
   </si>
   <si>
     <t>Data Evento Matrimonio</t>
@@ -463,13 +466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
@@ -532,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -552,10 +555,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -578,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -601,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -624,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -647,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -670,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -687,1819 +690,1842 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>26</v>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,9 +47,6 @@
     <t/>
   </si>
   <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
     <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
@@ -167,7 +164,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -466,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -555,10 +555,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -673,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -690,13 +690,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -712,592 +712,592 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>79</v>
@@ -1306,21 +1306,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>81</v>
@@ -1329,21 +1329,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>83</v>
@@ -1352,21 +1352,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>85</v>
@@ -1375,21 +1375,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>87</v>
@@ -1398,21 +1398,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>89</v>
@@ -1421,21 +1421,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>91</v>
@@ -1444,21 +1444,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>93</v>
@@ -1467,21 +1467,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>95</v>
@@ -1490,21 +1490,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>97</v>
@@ -1513,12 +1513,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>98</v>
@@ -1527,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>99</v>
@@ -1536,12 +1536,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>100</v>
@@ -1550,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>101</v>
@@ -1559,12 +1559,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>102</v>
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>103</v>
@@ -1582,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
@@ -1590,22 +1590,22 @@
         <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1613,7 +1613,7 @@
         <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -1622,13 +1622,13 @@
         <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -1636,7 +1636,7 @@
         <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -1645,13 +1645,13 @@
         <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -1659,7 +1659,7 @@
         <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -1668,13 +1668,13 @@
         <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -1682,7 +1682,7 @@
         <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -1691,13 +1691,13 @@
         <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -1705,7 +1705,7 @@
         <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1714,13 +1714,13 @@
         <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -1728,22 +1728,22 @@
         <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -1751,22 +1751,22 @@
         <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -1774,22 +1774,22 @@
         <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
@@ -1797,22 +1797,22 @@
         <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
@@ -1820,22 +1820,22 @@
         <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
@@ -1843,22 +1843,22 @@
         <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
@@ -1866,22 +1866,22 @@
         <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
@@ -1889,22 +1889,22 @@
         <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
@@ -1912,22 +1912,22 @@
         <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
@@ -1935,22 +1935,22 @@
         <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -1958,22 +1958,22 @@
         <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -1981,22 +1981,22 @@
         <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
@@ -2004,22 +2004,22 @@
         <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -2027,22 +2027,22 @@
         <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -2050,7 +2050,7 @@
         <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2059,13 +2059,13 @@
         <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -2073,7 +2073,7 @@
         <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2082,36 +2082,36 @@
         <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
@@ -2119,7 +2119,7 @@
         <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2128,13 +2128,13 @@
         <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
@@ -2142,7 +2142,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2151,13 +2151,13 @@
         <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -2165,7 +2165,7 @@
         <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2174,13 +2174,13 @@
         <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
@@ -2188,7 +2188,7 @@
         <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2197,13 +2197,13 @@
         <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
@@ -2211,22 +2211,22 @@
         <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -2234,22 +2234,22 @@
         <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
@@ -2257,22 +2257,22 @@
         <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
@@ -2280,22 +2280,22 @@
         <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
@@ -2303,45 +2303,45 @@
         <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
@@ -2349,7 +2349,7 @@
         <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2358,13 +2358,13 @@
         <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
@@ -2372,7 +2372,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2381,13 +2381,13 @@
         <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
@@ -2395,22 +2395,22 @@
         <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -2418,22 +2418,22 @@
         <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
@@ -2441,22 +2441,22 @@
         <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -2464,22 +2464,22 @@
         <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
@@ -2487,22 +2487,22 @@
         <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
@@ -2510,22 +2510,45 @@
         <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>27</v>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -324,6 +324,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -466,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1587,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1703,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1726,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1841,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1864,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1910,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1933,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1979,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1978,19 +2002,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2025,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2024,19 +2048,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2071,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2094,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2117,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2140,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2163,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2186,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2209,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2232,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2255,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2278,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2301,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2324,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2347,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2370,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2393,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2416,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2439,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2462,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2485,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2508,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2531,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2530,24 +2554,208 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -1042,7 +1042,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>53</v>
@@ -1180,7 +1180,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
@@ -1203,7 +1203,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>59</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>113</v>
@@ -1824,7 +1824,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>113</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -203,6 +203,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -254,13 +260,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -354,6 +360,84 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto di Nascita dello sposo</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto di Nascita della sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -490,17 +574,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1134,7 +1218,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>59</v>
@@ -1180,7 +1264,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
@@ -1315,7 +1399,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -1324,7 +1408,7 @@
         <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1338,7 +1422,7 @@
         <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -1548,7 +1632,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>59</v>
@@ -1617,7 +1701,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>59</v>
@@ -1703,19 +1787,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1810,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1833,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1856,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1879,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1902,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1925,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1948,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1971,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1994,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1933,19 +2017,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1956,19 +2040,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1979,19 +2063,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2086,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2109,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2132,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2155,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2178,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2201,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2224,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2247,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2270,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2209,19 +2293,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2316,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2339,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2362,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2385,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,16 +2411,16 @@
         <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,16 +2434,16 @@
         <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2454,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2477,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2416,19 +2500,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2523,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2546,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2569,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2592,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2615,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2638,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2661,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2684,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2707,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2730,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2753,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2776,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2715,19 +2799,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2738,24 +2822,622 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -574,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1655,7 +1661,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>59</v>
@@ -1724,7 +1730,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>59</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2092,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2207,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2276,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2299,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2322,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2391,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2437,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2457,16 +2463,16 @@
         <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2480,16 +2486,16 @@
         <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2529,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2552,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2575,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2598,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2621,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2644,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2713,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2736,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2759,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2782,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2845,19 +2851,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2868,19 +2874,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2897,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2920,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2937,19 +2943,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3009,16 +3015,16 @@
         <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3032,16 +3038,16 @@
         <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3058,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3081,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3098,19 +3104,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3121,19 +3127,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3150,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3167,19 +3173,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3196,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3213,19 +3219,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3236,19 +3242,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3259,19 +3265,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3282,19 +3288,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3305,19 +3311,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3328,19 +3334,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3351,19 +3357,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3374,19 +3380,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3397,19 +3403,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3420,24 +3426,70 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Copia atto di matrimonio trascritto</t>
   </si>
   <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -270,6 +273,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -580,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -804,637 +813,637 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>81</v>
@@ -1443,1073 +1452,1073 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2518,21 +2527,21 @@
         <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -2541,21 +2550,21 @@
         <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -2564,933 +2573,1002 @@
         <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>26</v>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2860,19 +2866,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2889,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2935,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,16 +3145,16 @@
         <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,16 +3168,16 @@
         <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3211,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3280,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3303,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3326,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3389,19 +3395,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3412,19 +3418,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3435,19 +3441,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3458,19 +3464,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3481,19 +3487,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3504,19 +3510,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3527,19 +3533,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3550,24 +3556,70 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2593,16 +2599,16 @@
         <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,16 +2622,16 @@
         <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2849,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2895,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2964,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3010,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3125,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,16 +3197,16 @@
         <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,16 +3220,16 @@
         <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3240,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3332,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3355,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3401,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3424,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3441,19 +3447,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3464,19 +3470,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3487,19 +3493,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3510,19 +3516,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3533,19 +3539,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3562,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3579,19 +3585,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3602,24 +3608,70 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -369,12 +369,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -601,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1906,19 +1900,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1923,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1946,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1969,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +1992,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2038,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2061,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2130,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2153,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2176,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2199,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2222,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2245,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2291,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2314,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2360,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2383,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2406,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2429,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2452,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2498,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2544,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2567,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2599,16 +2593,16 @@
         <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,16 +2616,16 @@
         <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2636,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2705,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2751,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2774,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2797,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2820,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2843,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2866,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2889,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2935,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2958,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2981,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3027,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3050,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3073,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3119,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3142,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3165,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,16 +3191,16 @@
         <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,16 +3214,16 @@
         <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3240,19 +3234,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3263,19 +3257,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3280,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3303,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3326,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3355,19 +3349,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3372,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3401,19 +3395,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3418,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3441,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3464,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3493,19 +3487,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3516,19 +3510,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3533,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3556,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3579,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3608,70 +3602,24 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -601,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1314,7 +1326,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>60</v>
@@ -1360,7 +1372,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>60</v>
@@ -1472,7 +1484,7 @@
         <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -1481,7 +1493,7 @@
         <v>60</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1495,7 +1507,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -1504,7 +1516,7 @@
         <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1518,7 +1530,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -1751,7 +1763,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>60</v>
@@ -1774,7 +1786,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>60</v>
@@ -1820,7 +1832,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>60</v>
@@ -1843,7 +1855,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>60</v>
@@ -1929,19 +1941,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1964,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1987,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2010,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2033,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2056,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2079,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2102,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2125,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2148,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2171,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2194,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2217,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2240,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2263,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2286,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2309,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2332,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2355,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2378,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2401,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2424,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2447,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2470,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2493,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2516,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2539,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2562,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2585,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2608,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2631,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2654,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2677,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2700,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2723,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2769,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2792,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2815,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2838,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2861,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2884,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2907,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2930,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2953,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2976,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2999,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3022,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3045,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3068,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3091,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3114,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3137,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3160,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3183,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3206,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3217,19 +3229,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3240,19 +3252,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3263,19 +3275,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3298,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3321,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3344,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3355,19 +3367,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3390,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3401,19 +3413,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3436,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3459,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3482,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3493,19 +3505,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3516,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3597,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3620,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3643,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3654,24 +3666,116 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>27</v>
       </c>
     </row>
